--- a/biology/Botanique/Umberto_Quattrocchi/Umberto_Quattrocchi.xlsx
+++ b/biology/Botanique/Umberto_Quattrocchi/Umberto_Quattrocchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Umberto Quattrocchi (Bergame, 21 décembre 1947 - Palerme, 16 octobre 2019) était un naturaliste et gynécologue italien, connu pour ses publications botaniques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Umberto Quattrocchi (Bergame, 21 décembre 1947 - Palerme, 16 octobre 2019) était un naturaliste et gynécologue italien, connu pour ses publications botaniques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé en science politique et médecine avec spécialisation en gynécologie à l' Université de Palerme, il est l'auteur de nombreux ouvrages sur la botanique. Ses articles sur la botanique et le jardinage ont été publiés dans de nombreux magazines, dont Hortus et The Garden.
 En 1992, il s'est retiré de la profession médicale pour se consacrer à des études de botanique et continuer à enseigner les sciences politiques à l'Université de Palerme.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(it) Ingegneria genetica umana. Problemi e prospettive (Génie génétique humain. Problèmes et perspectives) série Philosophie et pédagogie, Ed. Herbita, 1996 -  (ISBN 8-8799-4083-X)
 (it) Guía de plantas tropicales silvestres (avec Enrico Banfi), Grandes Obras. Guías de la naturaleza, Ed. Grijalbo, 1997 -  (ISBN 8-4253-3150-1)
